--- a/Data/Test1.xlsx
+++ b/Data/Test1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <x:si>
     <x:t>code</x:t>
   </x:si>
@@ -40,7 +40,7 @@
     <x:t>basic export price</x:t>
   </x:si>
   <x:si>
-    <x:t>price/pc  after discount*</x:t>
+    <x:t>billing price</x:t>
   </x:si>
   <x:si>
     <x:t>order</x:t>
@@ -49,7 +49,295 @@
     <x:t>billing price total</x:t>
   </x:si>
   <x:si>
-    <x:t>column11</x:t>
+    <x:t>price total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>marketing costs total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>column15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E4080A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003103848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHITENING Face Cream - CURRENTLY UNAVAILABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5142C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2x8 g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4165A</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Hyaluron Therapy Wrinkle Filler Eye&amp;Lip Cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4148B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003929103</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gold Elixir Rejuvenating Caviar Day Cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4149A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003929127</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gold Elixir Rejuvenating Caviar Night Cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>BT CELL Intensive Lifting Cream</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BT CELL Intensive Lifting Eye&amp;Lip Cream</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">BT CELL Intensive Lifting &amp; Remodeling Care </x:t>
+  </x:si>
+  <x:si>
+    <x:t>30 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Collagen+ Intensive Rejuvenating Eye&amp;Lip Cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Collagen+ Intensive Rejuvenating Serum - NEW</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Black Magic Detoxifying Micellar Lotion </x:t>
+  </x:si>
+  <x:si>
+    <x:t>200 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AcneClear pore minimizer - NEW</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AcneClear Jojoba Face Peeling </x:t>
+  </x:si>
+  <x:si>
+    <x:t>AcneClear Intensive Anti-Acne Treatment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4359A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003935623</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AcneClear Face Wash Gel </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4352A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003935166</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AcneClear Gel-cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>AcneClear Make-up removal and cleansing gel</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sensitive Micellar Lotion </x:t>
+  </x:si>
+  <x:si>
+    <x:t>400 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Love my face moisturizing care for young skin </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Love my face Brightening care for young skin </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love my face soothing care for young skin  - TO BE DESCONTINUED</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Hyaluron Wash cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4009A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003100618</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AquaBeauty Moisturizing gel-cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aqua Beauty 3in1 Face Cleansing Gel</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">AquaBeauty Cleansing Micellar Lotion </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black Magic Mattitying Face Moisturizer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003915878</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gommage Cleanser </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4316C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003917605</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eye Gold Gel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2606B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003105248</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Waterproof Eye Make-up Remover </x:t>
+  </x:si>
+  <x:si>
+    <x:t>120 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">BT CELL Intensive Lifting Mask </x:t>
+  </x:si>
+  <x:si>
+    <x:t>5140C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003931519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold Elixir Mask - NEW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003935203</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Acneclear Mask </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Hyaluron Therapy Intensive Hydrating Mask </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Collagen+ Intensive Rejuvenating Mask</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tissue Hydrating and Nourishing Mask</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tissue Intensive Lifting Mask</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tissue Detoxifying Mask Black Magic </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Black magic Detox and pore purifying peel-off mask </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morning beauty mask</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleeping beauty mask</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beautifying Cleansing peel-off metallic mask</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beautifying Brightening peel-off metallic mask</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Push up Bust firming and Lifting care</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Remodeling Body Butter </x:t>
+  </x:si>
+  <x:si>
+    <x:t>300 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4374A</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SOS Intensive Restoring Hand Cream </x:t>
+  </x:si>
+  <x:si>
+    <x:t>75 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595003104197</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Aroma Ritual Stress Relief Hand Cream - Grape and Lime </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Aroma Ritual Energizing Hand Cream - Black Cherry </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aroma Ritual Luscious Hand Cream - White peach</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aroma Ritual Embracing Hand Cream - Apple and Cinnamon - TO BE DISCONTINUED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aroma Ritual Harmonizing liquid soap - Belgian Chocolate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Aroma Ritual Refreshing liquid soap - Fresh Watermelon </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aroma Ritual Harmonizing liquid soap - Irish Coffee - TO BE DISCONTINUED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aroma Ritual Stress Relief refill liquid soap - Grape and Lime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500 ml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aroma Ritual Harmonizing refill liquid soap - Belgian Chocolate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antibacterial hand soap 250 ml - NEW</x:t>
   </x:si>
   <x:si>
     <x:t>8595003104234</x:t>
@@ -70,12 +358,6 @@
     <x:t xml:space="preserve">Aroma Ritual Harmonizing Shower gel - Belgian Chocolate </x:t>
   </x:si>
   <x:si>
-    <x:t>250 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
     <x:t>4040B</x:t>
   </x:si>
   <x:si>
@@ -92,276 +374,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Aroma Ritual Refreshing Shower gel - Fresh Watermelon </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4164A</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Hyaluron Therapy Wrinkle Filler Night Cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>50 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4165A</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Hyaluron Therapy Wrinkle Filler Eye&amp;Lip Cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4148B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003929103</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Gold Elixir Rejuvenating Caviar Day Cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4149A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003929127</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Gold Elixir Rejuvenating Caviar Night Cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>BT CELL Intensive Lifting Cream</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BT CELL Intensive Lifting Eye&amp;Lip Cream</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BT CELL Intensive Lifting &amp; Remodeling Care </x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Collagen+ Intensive Rejuvenating Eye&amp;Lip Cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Collagen+ Intensive Rejuvenating Serum - NEW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Black Magic Detoxifying Micellar Lotion </x:t>
-  </x:si>
-  <x:si>
-    <x:t>200 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AcneClear pore minimizer - NEW</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AcneClear Jojoba Face Peeling </x:t>
-  </x:si>
-  <x:si>
-    <x:t>150 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AcneClear Intensive Anti-Acne Treatment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4359A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003935623</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AcneClear Face Wash Gel </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4352A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003935166</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AcneClear Gel-cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>AcneClear Make-up removal and cleansing gel</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Sensitive Micellar Lotion </x:t>
-  </x:si>
-  <x:si>
-    <x:t>400 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Love my face moisturizing care for young skin </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Love my face Brightening care for young skin </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Love my face soothing care for young skin  - TO BE DESCONTINUED</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Hyaluron Wash cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4009A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003100618</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AquaBeauty Moisturizing gel-cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aqua Beauty 3in1 Face Cleansing Gel</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">AquaBeauty Cleansing Micellar Lotion </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Black Magic Mattitying Face Moisturizer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003915878</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Gommage Cleanser </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4316C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003917605</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eye Gold Gel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2606B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003105248</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Waterproof Eye Make-up Remover </x:t>
-  </x:si>
-  <x:si>
-    <x:t>120 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BT CELL Intensive Lifting Mask </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2x8 g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5140C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003931519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gold Elixir Mask - NEW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5142C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003935203</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Acneclear Mask </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Hyaluron Therapy Intensive Hydrating Mask </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Collagen+ Intensive Rejuvenating Mask</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tissue Hydrating and Nourishing Mask</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tissue Intensive Lifting Mask</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Tissue Detoxifying Mask Black Magic </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Black magic Detox and pore purifying peel-off mask </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morning beauty mask</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sleeping beauty mask</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beautifying Cleansing peel-off metallic mask</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beautifying Brightening peel-off metallic mask</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Push up Bust firming and Lifting care</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Remodeling Body Butter </x:t>
-  </x:si>
-  <x:si>
-    <x:t>300 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4374A</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SOS Intensive Restoring Hand Cream </x:t>
-  </x:si>
-  <x:si>
-    <x:t>75 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595003104197</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Aroma Ritual Stress Relief Hand Cream - Grape and Lime </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Aroma Ritual Energizing Hand Cream - Black Cherry </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aroma Ritual Luscious Hand Cream - White peach</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aroma Ritual Embracing Hand Cream - Apple and Cinnamon - TO BE DISCONTINUED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aroma Ritual Harmonizing liquid soap - Belgian Chocolate</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Aroma Ritual Refreshing liquid soap - Fresh Watermelon </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aroma Ritual Harmonizing liquid soap - Irish Coffee - TO BE DISCONTINUED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aroma Ritual Stress Relief refill liquid soap - Grape and Lime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500 ml</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aroma Ritual Harmonizing refill liquid soap - Belgian Chocolate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Antibacterial hand soap 250 ml - NEW</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Aroma Ritual Powering Shower gel - Pink Grapefruit </x:t>
@@ -1627,7 +1639,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:12">
+    <x:row r="1" spans="1:16">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1662,45 +1674,66 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="L1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:12">
+      <x:c r="N1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="P1" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:16">
       <x:c r="A2" s="0" t="n">
-        <x:v>5216</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>5002</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>655950039977654</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>5.99</x:v>
+        <x:v>1.5</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>4.99166666666667</x:v>
+        <x:v>1.25</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>1.4975</x:v>
+        <x:v>1.125</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
-        <x:v>35.94</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:12">
+        <x:v>15.75</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="n">
+        <x:v>57.6333333333333</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="n">
+        <x:v>43.4466666666667</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="n">
+        <x:v>14.1866666666667</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="n">
+        <x:v>57.6333333333334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:16">
       <x:c r="A3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -1717,141 +1750,171 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>11.99</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>4.49</x:v>
+        <x:v>9.99166666666667</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>3.74166666666667</x:v>
+        <x:v>0.74</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>1.1225</x:v>
+        <x:v>2.59783333333333</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K3" s="0" t="n">
-        <x:v>50.5125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:12">
-      <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>78.33</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="n">
+        <x:v>67.548</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="n">
+        <x:v>50.9208</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="n">
+        <x:v>16.6272</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="n">
+        <x:v>67.548</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:16">
+      <x:c r="A4" s="0" t="n">
+        <x:v>4344</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>6.55950039965065E+16</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="F4" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
+        <x:v>8.11</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>6.75833333333333</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="n">
+        <x:v>6.0825</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="n">
+        <x:v>152.0625</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="n">
+        <x:v>748.8</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="n">
+        <x:v>566.4</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="n">
+        <x:v>182.4</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="n">
+        <x:v>748.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:16">
+      <x:c r="A5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>65595003935203</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="n">
-        <x:v>4.49</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
-        <x:v>3.74166666666667</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="n">
-        <x:v>1.1225</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="n">
-        <x:v>50.5125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:12">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="F5" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="n">
+        <x:v>5.71</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
+        <x:v>4.75833333333333</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="n">
+        <x:v>4.2825</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="n">
+        <x:v>85.65</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="n">
+        <x:v>36.8</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="n">
+        <x:v>36.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:16">
+      <x:c r="A6" s="0" t="n">
+        <x:v>5163</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>65595003909963</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="n">
+        <x:v>7.11</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>5.925</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="n">
+        <x:v>5.3325</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="n">
+        <x:v>106.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:16">
+      <x:c r="A7" s="0" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="n">
-        <x:v>4.49</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="n">
-        <x:v>3.74166666666667</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="n">
-        <x:v>1.1225</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="n">
-        <x:v>50.5125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:12">
-      <x:c r="A6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="n">
-        <x:v>8595003108393</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="n">
-        <x:v>15.9</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="n">
-        <x:v>13.25</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="n">
-        <x:v>3.975</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="n">
-        <x:v>143.1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:12">
-      <x:c r="A7" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>8595003108416</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
         <x:v>5</x:v>
@@ -1875,18 +1938,18 @@
         <x:v>285</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:12">
+    <x:row r="8" spans="1:16">
       <x:c r="A8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
         <x:v>6</x:v>
@@ -1910,18 +1973,18 @@
         <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:12">
+    <x:row r="9" spans="1:16">
       <x:c r="A9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
         <x:v>6</x:v>
@@ -1945,7 +2008,7 @@
         <x:v>396</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:12">
+    <x:row r="10" spans="1:16">
       <x:c r="A10" s="0" t="n">
         <x:v>4167</x:v>
       </x:c>
@@ -1953,10 +2016,10 @@
         <x:v>8595003108805</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
         <x:v>6</x:v>
@@ -1980,7 +2043,7 @@
         <x:v>139.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:12">
+    <x:row r="11" spans="1:16">
       <x:c r="A11" s="0" t="n">
         <x:v>4168</x:v>
       </x:c>
@@ -1988,10 +2051,10 @@
         <x:v>8595003108829</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
         <x:v>5</x:v>
@@ -2015,7 +2078,7 @@
         <x:v>54.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:12">
+    <x:row r="12" spans="1:16">
       <x:c r="A12" s="0" t="n">
         <x:v>5001</x:v>
       </x:c>
@@ -2023,10 +2086,10 @@
         <x:v>8595003108874</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
         <x:v>5</x:v>
@@ -2050,7 +2113,7 @@
         <x:v>77.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:12">
+    <x:row r="13" spans="1:16">
       <x:c r="A13" s="0" t="n">
         <x:v>4177</x:v>
       </x:c>
@@ -2058,10 +2121,10 @@
         <x:v>8595003110372</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
         <x:v>20</x:v>
@@ -2082,7 +2145,7 @@
         <x:v>89</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:12">
+    <x:row r="14" spans="1:16">
       <x:c r="A14" s="0" t="n">
         <x:v>5003</x:v>
       </x:c>
@@ -2090,10 +2153,10 @@
         <x:v>8595003117807</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
         <x:v>14</x:v>
@@ -2114,7 +2177,7 @@
         <x:v>124.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:12">
+    <x:row r="15" spans="1:16">
       <x:c r="A15" s="0" t="n">
         <x:v>4233</x:v>
       </x:c>
@@ -2122,10 +2185,10 @@
         <x:v>8595003116725</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
         <x:v>6</x:v>
@@ -2149,7 +2212,7 @@
         <x:v>35.955</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:12">
+    <x:row r="16" spans="1:16">
       <x:c r="A16" s="0" t="n">
         <x:v>4344</x:v>
       </x:c>
@@ -2157,10 +2220,10 @@
         <x:v>8595003118088</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>25</x:v>
@@ -2181,7 +2244,7 @@
         <x:v>56.1875</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:12">
+    <x:row r="17" spans="1:16">
       <x:c r="A17" s="0" t="n">
         <x:v>4348</x:v>
       </x:c>
@@ -2189,10 +2252,10 @@
         <x:v>8595003109802</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
         <x:v>5</x:v>
@@ -2216,7 +2279,7 @@
         <x:v>104.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:12">
+    <x:row r="18" spans="1:16">
       <x:c r="A18" s="0" t="n">
         <x:v>4349</x:v>
       </x:c>
@@ -2224,10 +2287,10 @@
         <x:v>8590031104850</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
         <x:v>5</x:v>
@@ -2251,18 +2314,18 @@
         <x:v>244.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:12">
+    <x:row r="19" spans="1:16">
       <x:c r="A19" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
         <x:v>5</x:v>
@@ -2286,18 +2349,18 @@
         <x:v>247.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:12">
+    <x:row r="20" spans="1:16">
       <x:c r="A20" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
         <x:v>5</x:v>
@@ -2321,7 +2384,7 @@
         <x:v>89.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:12">
+    <x:row r="21" spans="1:16">
       <x:c r="A21" s="0" t="n">
         <x:v>4363</x:v>
       </x:c>
@@ -2329,10 +2392,10 @@
         <x:v>8590031102863</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
         <x:v>6</x:v>
@@ -2356,7 +2419,7 @@
         <x:v>125.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:12">
+    <x:row r="22" spans="1:16">
       <x:c r="A22" s="0" t="n">
         <x:v>4198</x:v>
       </x:c>
@@ -2364,10 +2427,10 @@
         <x:v>8590031103297</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
         <x:v>5</x:v>
@@ -2391,7 +2454,7 @@
         <x:v>24.975</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:12">
+    <x:row r="23" spans="1:16">
       <x:c r="A23" s="0" t="n">
         <x:v>4230</x:v>
       </x:c>
@@ -2399,10 +2462,10 @@
         <x:v>8590031109176</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
         <x:v>5</x:v>
@@ -2426,7 +2489,7 @@
         <x:v>37.4375</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:12">
+    <x:row r="24" spans="1:16">
       <x:c r="A24" s="0" t="n">
         <x:v>4231</x:v>
       </x:c>
@@ -2434,10 +2497,10 @@
         <x:v>8590031109190</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
         <x:v>5</x:v>
@@ -2461,7 +2524,7 @@
         <x:v>37.4375</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:12">
+    <x:row r="25" spans="1:16">
       <x:c r="A25" s="0" t="n">
         <x:v>4232</x:v>
       </x:c>
@@ -2469,10 +2532,10 @@
         <x:v>8590031109213</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
         <x:v>5</x:v>
@@ -2496,7 +2559,7 @@
         <x:v>74.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:12">
+    <x:row r="26" spans="1:16">
       <x:c r="A26" s="0" t="n">
         <x:v>5159</x:v>
       </x:c>
@@ -2504,10 +2567,10 @@
         <x:v>8590031100234</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
         <x:v>5</x:v>
@@ -2531,18 +2594,18 @@
         <x:v>77.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:12">
+    <x:row r="27" spans="1:16">
       <x:c r="A27" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
         <x:v>5</x:v>
@@ -2566,7 +2629,7 @@
         <x:v>54.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:12">
+    <x:row r="28" spans="1:16">
       <x:c r="A28" s="0" t="n">
         <x:v>5115</x:v>
       </x:c>
@@ -2574,10 +2637,10 @@
         <x:v>8590031108865</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
         <x:v>5</x:v>
@@ -2601,7 +2664,7 @@
         <x:v>82.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:12">
+    <x:row r="29" spans="1:16">
       <x:c r="A29" s="0" t="n">
         <x:v>4197</x:v>
       </x:c>
@@ -2609,10 +2672,10 @@
         <x:v>8590031102825</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
         <x:v>5</x:v>
@@ -2636,7 +2699,7 @@
         <x:v>22.475</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:12">
+    <x:row r="30" spans="1:16">
       <x:c r="A30" s="0" t="n">
         <x:v>4090</x:v>
       </x:c>
@@ -2644,10 +2707,10 @@
         <x:v>8595003110297</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
         <x:v>12</x:v>
@@ -2668,18 +2731,18 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:12">
+    <x:row r="31" spans="1:16">
       <x:c r="A31" s="0" t="n">
         <x:v>5123</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
         <x:v>5</x:v>
@@ -2703,18 +2766,18 @@
         <x:v>123.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:12">
+    <x:row r="32" spans="1:16">
       <x:c r="A32" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
         <x:v>5</x:v>
@@ -2738,18 +2801,18 @@
         <x:v>158</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:12">
+    <x:row r="33" spans="1:16">
       <x:c r="A33" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
         <x:v>7</x:v>
@@ -2773,7 +2836,7 @@
         <x:v>36.6975</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:12">
+    <x:row r="34" spans="1:16">
       <x:c r="A34" s="0" t="n">
         <x:v>5000</x:v>
       </x:c>
@@ -2781,10 +2844,10 @@
         <x:v>8595003108843</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
         <x:v>15</x:v>
@@ -2808,18 +2871,18 @@
         <x:v>44.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:12">
+    <x:row r="35" spans="1:16">
       <x:c r="A35" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
         <x:v>15</x:v>
@@ -2843,18 +2906,18 @@
         <x:v>44.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:12">
+    <x:row r="36" spans="1:16">
       <x:c r="A36" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
         <x:v>15</x:v>
@@ -2878,7 +2941,7 @@
         <x:v>20.925</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:12">
+    <x:row r="37" spans="1:16">
       <x:c r="A37" s="0" t="n">
         <x:v>5154</x:v>
       </x:c>
@@ -2886,10 +2949,10 @@
         <x:v>8595003108430</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
         <x:v>15</x:v>
@@ -2913,7 +2976,7 @@
         <x:v>269.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:12">
+    <x:row r="38" spans="1:16">
       <x:c r="A38" s="0" t="n">
         <x:v>5155</x:v>
       </x:c>
@@ -2921,10 +2984,10 @@
         <x:v>8595003110402</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>30</x:v>
@@ -2945,7 +3008,7 @@
         <x:v>269.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:12">
+    <x:row r="39" spans="1:16">
       <x:c r="A39" s="0" t="n">
         <x:v>5160</x:v>
       </x:c>
@@ -2953,10 +3016,10 @@
         <x:v>8590031102900</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
         <x:v>6</x:v>
@@ -2980,7 +3043,7 @@
         <x:v>89.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:12">
+    <x:row r="40" spans="1:16">
       <x:c r="A40" s="0" t="n">
         <x:v>5162</x:v>
       </x:c>
@@ -2988,10 +3051,10 @@
         <x:v>8590031102962</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
         <x:v>6</x:v>
@@ -3015,7 +3078,7 @@
         <x:v>44.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:12">
+    <x:row r="41" spans="1:16">
       <x:c r="A41" s="0" t="n">
         <x:v>5168</x:v>
       </x:c>
@@ -3023,10 +3086,10 @@
         <x:v>8595003114714</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
         <x:v>6</x:v>
@@ -3050,7 +3113,7 @@
         <x:v>56.0625</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:12">
+    <x:row r="42" spans="1:16">
       <x:c r="A42" s="0" t="n">
         <x:v>5163</x:v>
       </x:c>
@@ -3058,10 +3121,10 @@
         <x:v>8595003109963</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>20</x:v>
@@ -3082,7 +3145,7 @@
         <x:v>239.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:12">
+    <x:row r="43" spans="1:16">
       <x:c r="A43" s="0" t="n">
         <x:v>5164</x:v>
       </x:c>
@@ -3090,10 +3153,10 @@
         <x:v>8595003109987</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>20</x:v>
@@ -3114,7 +3177,7 @@
         <x:v>104.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:12">
+    <x:row r="44" spans="1:16">
       <x:c r="A44" s="0" t="n">
         <x:v>5165</x:v>
       </x:c>
@@ -3122,10 +3185,10 @@
         <x:v>8595003110006</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>20</x:v>
@@ -3146,7 +3209,7 @@
         <x:v>419.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:12">
+    <x:row r="45" spans="1:16">
       <x:c r="A45" s="0" t="n">
         <x:v>5169</x:v>
       </x:c>
@@ -3154,10 +3217,10 @@
         <x:v>8595003116640</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>30</x:v>
@@ -3178,7 +3241,7 @@
         <x:v>112.125</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:12">
+    <x:row r="46" spans="1:16">
       <x:c r="A46" s="0" t="n">
         <x:v>5170</x:v>
       </x:c>
@@ -3186,10 +3249,10 @@
         <x:v>8595003116671</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>30</x:v>
@@ -3210,7 +3273,7 @@
         <x:v>269.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:12">
+    <x:row r="47" spans="1:16">
       <x:c r="A47" s="0" t="n">
         <x:v>4457</x:v>
       </x:c>
@@ -3218,13 +3281,13 @@
         <x:v>8595003113779</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>15</x:v>
@@ -3245,7 +3308,7 @@
         <x:v>149.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:12">
+    <x:row r="48" spans="1:16">
       <x:c r="A48" s="0" t="n">
         <x:v>4461</x:v>
       </x:c>
@@ -3253,10 +3316,10 @@
         <x:v>8595003118361</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>12</x:v>
@@ -3277,21 +3340,21 @@
         <x:v>447</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:12">
+    <x:row r="49" spans="1:16">
       <x:c r="A49" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
         <x:v>8590031098128</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>15</x:v>
@@ -3312,18 +3375,18 @@
         <x:v>119.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:12">
+    <x:row r="50" spans="1:16">
       <x:c r="A50" s="0" t="n">
         <x:v>4376</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
         <x:v>5</x:v>
@@ -3347,7 +3410,7 @@
         <x:v>78.525</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:12">
+    <x:row r="51" spans="1:16">
       <x:c r="A51" s="0" t="n">
         <x:v>4378</x:v>
       </x:c>
@@ -3355,10 +3418,10 @@
         <x:v>8595003107105</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
         <x:v>5</x:v>
@@ -3382,7 +3445,7 @@
         <x:v>78.525</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:12">
+    <x:row r="52" spans="1:16">
       <x:c r="A52" s="0" t="n">
         <x:v>4390</x:v>
       </x:c>
@@ -3390,13 +3453,13 @@
         <x:v>8595003116916</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
         <x:v>15</x:v>
@@ -3417,7 +3480,7 @@
         <x:v>78.525</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:12">
+    <x:row r="53" spans="1:16">
       <x:c r="A53" s="0" t="n">
         <x:v>4385</x:v>
       </x:c>
@@ -3425,10 +3488,10 @@
         <x:v>8590031104836</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
         <x:v>5</x:v>
@@ -3452,7 +3515,7 @@
         <x:v>78.525</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:12">
+    <x:row r="54" spans="1:16">
       <x:c r="A54" s="0" t="n">
         <x:v>4202</x:v>
       </x:c>
@@ -3460,13 +3523,13 @@
         <x:v>8590031100494</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
         <x:v>15</x:v>
@@ -3487,7 +3550,7 @@
         <x:v>78.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:12">
+    <x:row r="55" spans="1:16">
       <x:c r="A55" s="0" t="n">
         <x:v>4204</x:v>
       </x:c>
@@ -3495,13 +3558,13 @@
         <x:v>8590031100517</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
         <x:v>15</x:v>
@@ -3522,7 +3585,7 @@
         <x:v>26.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:12">
+    <x:row r="56" spans="1:16">
       <x:c r="A56" s="0" t="n">
         <x:v>4206</x:v>
       </x:c>
@@ -3530,13 +3593,13 @@
         <x:v>8590031100531</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>15</x:v>
@@ -3557,7 +3620,7 @@
         <x:v>26.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:12">
+    <x:row r="57" spans="1:16">
       <x:c r="A57" s="0" t="n">
         <x:v>4208</x:v>
       </x:c>
@@ -3565,13 +3628,13 @@
         <x:v>8590031100555</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
         <x:v>6</x:v>
@@ -3592,7 +3655,7 @@
         <x:v>29.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:12">
+    <x:row r="58" spans="1:16">
       <x:c r="A58" s="0" t="n">
         <x:v>4210</x:v>
       </x:c>
@@ -3600,13 +3663,13 @@
         <x:v>8590031100579</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
         <x:v>6</x:v>
@@ -3627,7 +3690,7 @@
         <x:v>44.91</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:12">
+    <x:row r="59" spans="1:16">
       <x:c r="A59" s="0" t="n">
         <x:v>4609</x:v>
       </x:c>
@@ -3635,13 +3698,13 @@
         <x:v>8595003119924</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
         <x:v>15</x:v>
@@ -3662,18 +3725,18 @@
         <x:v>67.3875</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:12">
+    <x:row r="60" spans="1:16">
       <x:c r="A60" s="0" t="n">
         <x:v>5216</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
         <x:v>6</x:v>
@@ -3697,21 +3760,21 @@
         <x:v>35.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:12">
+    <x:row r="61" spans="1:16">
       <x:c r="A61" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>15</x:v>
@@ -3732,21 +3795,21 @@
         <x:v>50.5125</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:12">
+    <x:row r="62" spans="1:16">
       <x:c r="A62" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
         <x:v>15</x:v>
@@ -3767,21 +3830,21 @@
         <x:v>50.5125</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:12">
+    <x:row r="63" spans="1:16">
       <x:c r="A63" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
         <x:v>15</x:v>
@@ -3802,7 +3865,7 @@
         <x:v>50.5125</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:12">
+    <x:row r="64" spans="1:16">
       <x:c r="A64" s="0" t="n">
         <x:v>4117</x:v>
       </x:c>
@@ -3810,13 +3873,13 @@
         <x:v>8590031101224</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>15</x:v>
@@ -3837,7 +3900,7 @@
         <x:v>50.5125</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:12">
+    <x:row r="65" spans="1:16">
       <x:c r="A65" s="0" t="n">
         <x:v>4216</x:v>
       </x:c>
@@ -3845,10 +3908,10 @@
         <x:v>8595003115681</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
         <x:v>15</x:v>
@@ -3869,7 +3932,7 @@
         <x:v>50.5125</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:12">
+    <x:row r="66" spans="1:16">
       <x:c r="A66" s="0" t="n">
         <x:v>4220</x:v>
       </x:c>
@@ -3877,13 +3940,13 @@
         <x:v>8590031157368</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
         <x:v>18</x:v>
@@ -3904,7 +3967,7 @@
         <x:v>188.73</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:12">
+    <x:row r="67" spans="1:16">
       <x:c r="A67" s="0" t="n">
         <x:v>4115</x:v>
       </x:c>
@@ -3912,13 +3975,13 @@
         <x:v>8590031098715</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
         <x:v>18</x:v>
@@ -3939,7 +4002,7 @@
         <x:v>188.73</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:12">
+    <x:row r="68" spans="1:16">
       <x:c r="A68" s="0" t="n">
         <x:v>4046</x:v>
       </x:c>
@@ -3947,13 +4010,13 @@
         <x:v>8595003108782</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
         <x:v>18</x:v>
@@ -3974,7 +4037,7 @@
         <x:v>188.73</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:12">
+    <x:row r="69" spans="1:16">
       <x:c r="A69" s="0" t="n">
         <x:v>4119</x:v>
       </x:c>
@@ -3982,13 +4045,13 @@
         <x:v>8590031104812</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
         <x:v>18</x:v>
@@ -4009,7 +4072,7 @@
         <x:v>94.365</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:12">
+    <x:row r="70" spans="1:16">
       <x:c r="A70" s="0" t="n">
         <x:v>4213</x:v>
       </x:c>
@@ -4017,13 +4080,13 @@
         <x:v>8590031104454</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
         <x:v>5</x:v>
@@ -4044,7 +4107,7 @@
         <x:v>89.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:12">
+    <x:row r="71" spans="1:16">
       <x:c r="A71" s="0" t="n">
         <x:v>4218</x:v>
       </x:c>
@@ -4052,13 +4115,13 @@
         <x:v>8595003115728</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
         <x:v>5</x:v>
@@ -4079,7 +4142,7 @@
         <x:v>89.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:12">
+    <x:row r="72" spans="1:16">
       <x:c r="A72" s="0" t="n">
         <x:v>4507</x:v>
       </x:c>
@@ -4087,10 +4150,10 @@
         <x:v>8590031108766</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
         <x:v>6</x:v>
@@ -4114,7 +4177,7 @@
         <x:v>104.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:12">
+    <x:row r="73" spans="1:16">
       <x:c r="A73" s="0" t="n">
         <x:v>4508</x:v>
       </x:c>
@@ -4122,13 +4185,13 @@
         <x:v>8590031108780</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
         <x:v>10</x:v>
@@ -4149,7 +4212,7 @@
         <x:v>29.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:12">
+    <x:row r="74" spans="1:16">
       <x:c r="A74" s="0" t="n">
         <x:v>4509</x:v>
       </x:c>
@@ -4157,13 +4220,13 @@
         <x:v>8590031108803</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
         <x:v>10</x:v>
@@ -4184,7 +4247,7 @@
         <x:v>29.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:12">
+    <x:row r="75" spans="1:16">
       <x:c r="A75" s="0" t="n">
         <x:v>4080</x:v>
       </x:c>
@@ -4192,13 +4255,13 @@
         <x:v>8590031157467</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
         <x:v>18</x:v>
@@ -4219,18 +4282,18 @@
         <x:v>62.91</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:12">
+    <x:row r="76" spans="1:16">
       <x:c r="A76" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
         <x:v>6</x:v>
@@ -4254,7 +4317,7 @@
         <x:v>134.925</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:12">
+    <x:row r="77" spans="1:16">
       <x:c r="A77" s="0" t="n">
         <x:v>1420</x:v>
       </x:c>
@@ -4262,10 +4325,10 @@
         <x:v>85963832</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
         <x:v>30</x:v>
@@ -4286,7 +4349,7 @@
         <x:v>209.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:12">
+    <x:row r="78" spans="1:16">
       <x:c r="A78" s="0" t="n">
         <x:v>1422</x:v>
       </x:c>
@@ -4294,10 +4357,10 @@
         <x:v>85963856</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>30</x:v>
@@ -4318,21 +4381,21 @@
         <x:v>524.625</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:12">
+    <x:row r="79" spans="1:16">
       <x:c r="A79" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
         <x:v>85952058</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
         <x:v>9</x:v>
@@ -4353,18 +4416,18 @@
         <x:v>134.8875</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:12">
+    <x:row r="80" spans="1:16">
       <x:c r="A80" s="0" t="n">
         <x:v>1283</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
         <x:v>4</x:v>
@@ -4388,18 +4451,18 @@
         <x:v>57.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:12">
+    <x:row r="81" spans="1:16">
       <x:c r="A81" s="0" t="n">
         <x:v>1284</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
         <x:v>4</x:v>
@@ -4423,18 +4486,18 @@
         <x:v>172.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:12">
+    <x:row r="82" spans="1:16">
       <x:c r="A82" s="0" t="n">
         <x:v>1285</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
         <x:v>4</x:v>
@@ -4458,18 +4521,18 @@
         <x:v>57.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:12">
+    <x:row r="83" spans="1:16">
       <x:c r="A83" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>5</x:v>
@@ -4493,18 +4556,18 @@
         <x:v>149.8125</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:12">
+    <x:row r="84" spans="1:16">
       <x:c r="A84" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
         <x:v>5</x:v>
@@ -4528,18 +4591,18 @@
         <x:v>49.9375</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:12">
+    <x:row r="85" spans="1:16">
       <x:c r="A85" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
         <x:v>85951099</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
         <x:v>5</x:v>
@@ -4563,18 +4626,18 @@
         <x:v>99.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:12">
+    <x:row r="86" spans="1:16">
       <x:c r="A86" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
         <x:v>85951105</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
         <x:v>5</x:v>
@@ -4598,18 +4661,18 @@
         <x:v>49.9375</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:12">
+    <x:row r="87" spans="1:16">
       <x:c r="A87" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
         <x:v>6</x:v>
@@ -4633,7 +4696,7 @@
         <x:v>717.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:12">
+    <x:row r="88" spans="1:16">
       <x:c r="A88" s="0" t="n">
         <x:v>1264</x:v>
       </x:c>
@@ -4641,13 +4704,13 @@
         <x:v>85954472</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
         <x:v>40</x:v>
@@ -4668,21 +4731,21 @@
         <x:v>179.9</x:v>
       </x:c>
       <x:c r="L88" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:12">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:16">
       <x:c r="A89" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
         <x:v>85950849</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
         <x:v>40</x:v>
@@ -4703,7 +4766,7 @@
         <x:v>359.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:12">
+    <x:row r="90" spans="1:16">
       <x:c r="A90" s="0" t="n">
         <x:v>1265</x:v>
       </x:c>
@@ -4711,13 +4774,13 @@
         <x:v>85954489</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
         <x:v>40</x:v>
@@ -4738,24 +4801,24 @@
         <x:v>179.9</x:v>
       </x:c>
       <x:c r="L90" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:12">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:16">
       <x:c r="A91" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
         <x:v>40</x:v>
@@ -4776,21 +4839,21 @@
         <x:v>359.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:12">
+    <x:row r="92" spans="1:16">
       <x:c r="A92" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
         <x:v>40</x:v>
@@ -4811,21 +4874,21 @@
         <x:v>359.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:12">
+    <x:row r="93" spans="1:16">
       <x:c r="A93" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
         <x:v>40</x:v>
@@ -4846,7 +4909,7 @@
         <x:v>179.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:12">
+    <x:row r="94" spans="1:16">
       <x:c r="A94" s="0" t="n">
         <x:v>1308</x:v>
       </x:c>
@@ -4854,13 +4917,13 @@
         <x:v>85959538</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
         <x:v>20</x:v>
@@ -4881,7 +4944,7 @@
         <x:v>169.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:12">
+    <x:row r="95" spans="1:16">
       <x:c r="A95" s="0" t="n">
         <x:v>1309</x:v>
       </x:c>
@@ -4889,13 +4952,13 @@
         <x:v>85959545</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
         <x:v>20</x:v>
@@ -4916,7 +4979,7 @@
         <x:v>169.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:12">
+    <x:row r="96" spans="1:16">
       <x:c r="A96" s="0" t="n">
         <x:v>1310</x:v>
       </x:c>
@@ -4924,13 +4987,13 @@
         <x:v>85959552</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
         <x:v>20</x:v>
@@ -4951,18 +5014,18 @@
         <x:v>84.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:12">
+    <x:row r="97" spans="1:16">
       <x:c r="A97" s="0" t="n">
         <x:v>1367</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
         <x:v>4</x:v>
@@ -4986,7 +5049,7 @@
         <x:v>119.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:12">
+    <x:row r="98" spans="1:16">
       <x:c r="A98" s="0" t="n">
         <x:v>1311</x:v>
       </x:c>
@@ -4994,10 +5057,10 @@
         <x:v>85966703</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
         <x:v>4</x:v>
@@ -5021,7 +5084,7 @@
         <x:v>59.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:12">
+    <x:row r="99" spans="1:16">
       <x:c r="A99" s="0" t="n">
         <x:v>1312</x:v>
       </x:c>
@@ -5029,10 +5092,10 @@
         <x:v>85966727</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
         <x:v>4</x:v>
@@ -5056,18 +5119,18 @@
         <x:v>119.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:12">
+    <x:row r="100" spans="1:16">
       <x:c r="A100" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
         <x:v>4</x:v>
@@ -5091,7 +5154,7 @@
         <x:v>119.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:12">
+    <x:row r="101" spans="1:16">
       <x:c r="A101" s="0" t="n">
         <x:v>1313</x:v>
       </x:c>
@@ -5099,10 +5162,10 @@
         <x:v>85966734</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
         <x:v>4</x:v>
@@ -5126,18 +5189,18 @@
         <x:v>59.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:12">
+    <x:row r="102" spans="1:16">
       <x:c r="A102" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
         <x:v>4</x:v>
@@ -5161,18 +5224,18 @@
         <x:v>119.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:12">
+    <x:row r="103" spans="1:16">
       <x:c r="A103" s="0" t="n">
         <x:v>1368</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E103" s="0" t="n">
         <x:v>4</x:v>
@@ -5196,18 +5259,18 @@
         <x:v>119.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:12">
+    <x:row r="104" spans="1:16">
       <x:c r="A104" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E104" s="0" t="n">
         <x:v>4</x:v>
@@ -5231,7 +5294,7 @@
         <x:v>179.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:12">
+    <x:row r="105" spans="1:16">
       <x:c r="A105" s="0" t="n">
         <x:v>1322</x:v>
       </x:c>
@@ -5239,10 +5302,10 @@
         <x:v>85966710</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E105" s="0" t="n">
         <x:v>4</x:v>
@@ -5266,18 +5329,18 @@
         <x:v>59.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:12">
+    <x:row r="106" spans="1:16">
       <x:c r="A106" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
         <x:v>4</x:v>
@@ -5301,18 +5364,18 @@
         <x:v>119.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:12">
+    <x:row r="107" spans="1:16">
       <x:c r="A107" s="0" t="n">
         <x:v>1369</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
         <x:v>4</x:v>
@@ -5336,7 +5399,7 @@
         <x:v>59.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:12">
+    <x:row r="108" spans="1:16">
       <x:c r="A108" s="0" t="n">
         <x:v>1260</x:v>
       </x:c>
@@ -5344,10 +5407,10 @@
         <x:v>85954212</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
         <x:v>5</x:v>
@@ -5371,7 +5434,7 @@
         <x:v>49.9375</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:12">
+    <x:row r="109" spans="1:16">
       <x:c r="A109" s="0" t="n">
         <x:v>1261</x:v>
       </x:c>
@@ -5379,10 +5442,10 @@
         <x:v>85954229</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
         <x:v>5</x:v>
@@ -5406,7 +5469,7 @@
         <x:v>49.9375</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:12">
+    <x:row r="110" spans="1:16">
       <x:c r="A110" s="0" t="n">
         <x:v>1262</x:v>
       </x:c>
@@ -5414,10 +5477,10 @@
         <x:v>85954236</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E110" s="0" t="n">
         <x:v>5</x:v>
@@ -5441,7 +5504,7 @@
         <x:v>49.9375</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:12">
+    <x:row r="111" spans="1:16">
       <x:c r="A111" s="0" t="n">
         <x:v>1263</x:v>
       </x:c>
@@ -5449,10 +5512,10 @@
         <x:v>85954243</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E111" s="0" t="n">
         <x:v>5</x:v>
@@ -5476,18 +5539,18 @@
         <x:v>49.9375</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:12">
+    <x:row r="112" spans="1:16">
       <x:c r="A112" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
         <x:v>5</x:v>
@@ -5511,18 +5574,18 @@
         <x:v>37.4375</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:12">
+    <x:row r="113" spans="1:16">
       <x:c r="A113" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E113" s="0" t="n">
         <x:v>5</x:v>
@@ -5546,18 +5609,18 @@
         <x:v>74.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:12">
+    <x:row r="114" spans="1:16">
       <x:c r="A114" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
         <x:v>5</x:v>
@@ -5581,18 +5644,18 @@
         <x:v>37.4375</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:12">
+    <x:row r="115" spans="1:16">
       <x:c r="A115" s="0" t="n">
         <x:v>1414</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
         <x:v>12</x:v>
@@ -5616,7 +5679,7 @@
         <x:v>44.91</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:12">
+    <x:row r="116" spans="1:16">
       <x:c r="A116" s="0" t="n">
         <x:v>1423</x:v>
       </x:c>
@@ -5624,10 +5687,10 @@
         <x:v>85963863</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
         <x:v>12</x:v>
@@ -5648,7 +5711,7 @@
         <x:v>71.91</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:12">
+    <x:row r="117" spans="1:16">
       <x:c r="A117" s="0" t="n">
         <x:v>1424</x:v>
       </x:c>
@@ -5656,10 +5719,10 @@
         <x:v>85963870</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
         <x:v>12</x:v>
@@ -5680,7 +5743,7 @@
         <x:v>71.91</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:12">
+    <x:row r="118" spans="1:16">
       <x:c r="A118" s="0" t="n">
         <x:v>1425</x:v>
       </x:c>
@@ -5688,10 +5751,10 @@
         <x:v>85963887</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
         <x:v>12</x:v>
@@ -5712,7 +5775,7 @@
         <x:v>23.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:12">
+    <x:row r="119" spans="1:16">
       <x:c r="A119" s="0" t="n">
         <x:v>2137</x:v>
       </x:c>
@@ -5720,10 +5783,10 @@
         <x:v>85963726</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
         <x:v>20</x:v>
@@ -5744,7 +5807,7 @@
         <x:v>54.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:12">
+    <x:row r="120" spans="1:16">
       <x:c r="A120" s="0" t="n">
         <x:v>2138</x:v>
       </x:c>
@@ -5752,10 +5815,10 @@
         <x:v>85963733</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
         <x:v>20</x:v>
@@ -5776,7 +5839,7 @@
         <x:v>54.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:12">
+    <x:row r="121" spans="1:16">
       <x:c r="A121" s="0" t="n">
         <x:v>2139</x:v>
       </x:c>
@@ -5784,10 +5847,10 @@
         <x:v>85963740</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
         <x:v>20</x:v>
@@ -5808,21 +5871,21 @@
         <x:v>54.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:12">
+    <x:row r="122" spans="1:16">
       <x:c r="A122" s="0" t="n">
         <x:v>1416</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
         <x:v>6</x:v>
@@ -5843,18 +5906,18 @@
         <x:v>47.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:12">
+    <x:row r="123" spans="1:16">
       <x:c r="A123" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
         <x:v>2</x:v>
@@ -5878,18 +5941,18 @@
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:12">
+    <x:row r="124" spans="1:16">
       <x:c r="A124" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
         <x:v>2</x:v>
@@ -5913,7 +5976,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:12">
+    <x:row r="125" spans="1:16">
       <x:c r="A125" s="0" t="n">
         <x:v>1016</x:v>
       </x:c>
@@ -5921,10 +5984,10 @@
         <x:v>85960145</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="D125" s="0" t="s">
-        <x:v>227</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
         <x:v>2</x:v>
@@ -5948,21 +6011,21 @@
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:12">
+    <x:row r="126" spans="1:16">
       <x:c r="A126" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
         <x:v>6</x:v>
@@ -5983,21 +6046,21 @@
         <x:v>104.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:12">
+    <x:row r="127" spans="1:16">
       <x:c r="A127" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
         <x:v>6</x:v>
@@ -6018,21 +6081,21 @@
         <x:v>104.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="128" spans="1:12">
+    <x:row r="128" spans="1:16">
       <x:c r="A128" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="C128" s="0" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="D128" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
       <x:c r="E128" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
         <x:v>6</x:v>
@@ -6053,7 +6116,7 @@
         <x:v>20.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="129" spans="1:12">
+    <x:row r="129" spans="1:16">
       <x:c r="A129" s="0" t="n">
         <x:v>2400</x:v>
       </x:c>
@@ -6061,13 +6124,13 @@
         <x:v>8590031101729</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
         <x:v>6</x:v>
@@ -6088,7 +6151,7 @@
         <x:v>83.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:12">
+    <x:row r="130" spans="1:16">
       <x:c r="A130" s="0" t="n">
         <x:v>2401</x:v>
       </x:c>
@@ -6096,13 +6159,13 @@
         <x:v>8590031101743</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
         <x:v>6</x:v>
@@ -6123,7 +6186,7 @@
         <x:v>33.54</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:12">
+    <x:row r="131" spans="1:16">
       <x:c r="A131" s="0" t="n">
         <x:v>2402</x:v>
       </x:c>
@@ -6131,13 +6194,13 @@
         <x:v>8590031101767</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
         <x:v>6</x:v>
@@ -6158,7 +6221,7 @@
         <x:v>92.235</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:12">
+    <x:row r="132" spans="1:16">
       <x:c r="A132" s="0" t="n">
         <x:v>2403</x:v>
       </x:c>
@@ -6166,13 +6229,13 @@
         <x:v>8590031101781</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
         <x:v>6</x:v>
@@ -6193,18 +6256,18 @@
         <x:v>92.235</x:v>
       </x:c>
     </x:row>
-    <x:row r="133" spans="1:12">
+    <x:row r="133" spans="1:16">
       <x:c r="A133" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B133" s="0" t="n">
         <x:v>8595003933735</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
         <x:v>3</x:v>
@@ -6228,18 +6291,18 @@
         <x:v>118.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:12">
+    <x:row r="134" spans="1:16">
       <x:c r="A134" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
         <x:v>3</x:v>
@@ -6263,18 +6326,18 @@
         <x:v>129.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="135" spans="1:12">
+    <x:row r="135" spans="1:16">
       <x:c r="A135" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="s">
         <x:v>253</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="C135" s="0" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="D135" s="0" t="s">
-        <x:v>249</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
         <x:v>3</x:v>
@@ -6298,18 +6361,18 @@
         <x:v>86.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:12">
+    <x:row r="136" spans="1:16">
       <x:c r="A136" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
         <x:v>3</x:v>
@@ -6333,21 +6396,21 @@
         <x:v>43.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:12">
+    <x:row r="137" spans="1:16">
       <x:c r="A137" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B137" s="0" t="n">
         <x:v>8595003107556</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
         <x:v>5</x:v>
@@ -6368,21 +6431,21 @@
         <x:v>22.475</x:v>
       </x:c>
     </x:row>
-    <x:row r="138" spans="1:12">
+    <x:row r="138" spans="1:16">
       <x:c r="A138" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B138" s="0" t="n">
         <x:v>8595003107570</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
         <x:v>5</x:v>
@@ -6403,21 +6466,21 @@
         <x:v>22.475</x:v>
       </x:c>
     </x:row>
-    <x:row r="139" spans="1:12">
+    <x:row r="139" spans="1:16">
       <x:c r="A139" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B139" s="0" t="n">
         <x:v>8595003107594</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="D139" s="0" t="s">
-        <x:v>261</x:v>
-      </x:c>
       <x:c r="E139" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
         <x:v>5</x:v>
@@ -6438,7 +6501,7 @@
         <x:v>22.475</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:12">
+    <x:row r="140" spans="1:16">
       <x:c r="A140" s="0" t="n">
         <x:v>2608</x:v>
       </x:c>
@@ -6446,13 +6509,13 @@
         <x:v>8595003114769</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
         <x:v>15</x:v>
@@ -6473,7 +6536,7 @@
         <x:v>78.6375</x:v>
       </x:c>
     </x:row>
-    <x:row r="141" spans="1:12">
+    <x:row r="141" spans="1:16">
       <x:c r="A141" s="0" t="n">
         <x:v>2453</x:v>
       </x:c>
@@ -6481,13 +6544,13 @@
         <x:v>8590031101828</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
         <x:v>6</x:v>
@@ -6508,7 +6571,7 @@
         <x:v>48.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:12">
+    <x:row r="142" spans="1:16">
       <x:c r="A142" s="0" t="n">
         <x:v>2454</x:v>
       </x:c>
@@ -6516,13 +6579,13 @@
         <x:v>8590031101842</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
         <x:v>6</x:v>
@@ -6543,7 +6606,7 @@
         <x:v>58.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="143" spans="1:12">
+    <x:row r="143" spans="1:16">
       <x:c r="A143" s="0" t="n">
         <x:v>2455</x:v>
       </x:c>
@@ -6551,13 +6614,13 @@
         <x:v>8590031101866</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
         <x:v>6</x:v>
@@ -6578,7 +6641,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="144" spans="1:12">
+    <x:row r="144" spans="1:16">
       <x:c r="A144" s="0" t="n">
         <x:v>2456</x:v>
       </x:c>
@@ -6586,13 +6649,13 @@
         <x:v>8590031101880</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
         <x:v>6</x:v>
@@ -6613,7 +6676,7 @@
         <x:v>58.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:12">
+    <x:row r="145" spans="1:16">
       <x:c r="A145" s="0" t="n">
         <x:v>3431</x:v>
       </x:c>
@@ -6621,10 +6684,10 @@
         <x:v>85966833</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
         <x:v>3</x:v>
@@ -6648,7 +6711,7 @@
         <x:v>37.4625</x:v>
       </x:c>
     </x:row>
-    <x:row r="146" spans="1:12">
+    <x:row r="146" spans="1:16">
       <x:c r="A146" s="0" t="n">
         <x:v>3433</x:v>
       </x:c>
@@ -6656,10 +6719,10 @@
         <x:v>85966857</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
         <x:v>3</x:v>
@@ -6683,7 +6746,7 @@
         <x:v>37.4625</x:v>
       </x:c>
     </x:row>
-    <x:row r="147" spans="1:12">
+    <x:row r="147" spans="1:16">
       <x:c r="A147" s="0" t="n">
         <x:v>3435</x:v>
       </x:c>
@@ -6691,10 +6754,10 @@
         <x:v>85966871</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
         <x:v>3</x:v>
@@ -6718,7 +6781,7 @@
         <x:v>37.4625</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:12">
+    <x:row r="148" spans="1:16">
       <x:c r="A148" s="0" t="n">
         <x:v>3436</x:v>
       </x:c>
@@ -6726,10 +6789,10 @@
         <x:v>85966888</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
         <x:v>3</x:v>
@@ -6753,7 +6816,7 @@
         <x:v>37.4625</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:12">
+    <x:row r="149" spans="1:16">
       <x:c r="A149" s="0" t="n">
         <x:v>3459</x:v>
       </x:c>
@@ -6761,13 +6824,13 @@
         <x:v>85966369</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
         <x:v>5</x:v>
@@ -6788,7 +6851,7 @@
         <x:v>199.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:12">
+    <x:row r="150" spans="1:16">
       <x:c r="A150" s="0" t="n">
         <x:v>3460</x:v>
       </x:c>
@@ -6796,13 +6859,13 @@
         <x:v>85966376</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
         <x:v>5</x:v>
@@ -6823,7 +6886,7 @@
         <x:v>359.775</x:v>
       </x:c>
     </x:row>
-    <x:row r="151" spans="1:12">
+    <x:row r="151" spans="1:16">
       <x:c r="A151" s="0" t="n">
         <x:v>2405</x:v>
       </x:c>
@@ -6831,13 +6894,13 @@
         <x:v>85963436</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F151" s="0" t="n">
         <x:v>3</x:v>
@@ -6858,7 +6921,7 @@
         <x:v>47.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="152" spans="1:12">
+    <x:row r="152" spans="1:16">
       <x:c r="A152" s="0" t="n">
         <x:v>2406</x:v>
       </x:c>
@@ -6866,13 +6929,13 @@
         <x:v>85963443</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F152" s="0" t="n">
         <x:v>3</x:v>
@@ -6893,7 +6956,7 @@
         <x:v>95.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="153" spans="1:12">
+    <x:row r="153" spans="1:16">
       <x:c r="A153" s="0" t="n">
         <x:v>2407</x:v>
       </x:c>
@@ -6901,13 +6964,13 @@
         <x:v>85963450</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
         <x:v>3</x:v>
@@ -6928,7 +6991,7 @@
         <x:v>95.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="1:12">
+    <x:row r="154" spans="1:16">
       <x:c r="A154" s="0" t="n">
         <x:v>3129</x:v>
       </x:c>
@@ -6936,10 +6999,10 @@
         <x:v>85971332</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
         <x:v>3</x:v>
@@ -6960,7 +7023,7 @@
         <x:v>149.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="155" spans="1:12">
+    <x:row r="155" spans="1:16">
       <x:c r="A155" s="0" t="n">
         <x:v>2341</x:v>
       </x:c>
@@ -6968,13 +7031,13 @@
         <x:v>8595003108744</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
         <x:v>5</x:v>
@@ -6995,7 +7058,7 @@
         <x:v>37.4625</x:v>
       </x:c>
     </x:row>
-    <x:row r="156" spans="1:12">
+    <x:row r="156" spans="1:16">
       <x:c r="A156" s="0" t="n">
         <x:v>2123</x:v>
       </x:c>
@@ -7003,10 +7066,10 @@
         <x:v>85959033</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
         <x:v>12</x:v>
@@ -7030,7 +7093,7 @@
         <x:v>71.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="157" spans="1:12">
+    <x:row r="157" spans="1:16">
       <x:c r="A157" s="0" t="n">
         <x:v>2124</x:v>
       </x:c>
@@ -7038,10 +7101,10 @@
         <x:v>85959040</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
         <x:v>12</x:v>
@@ -7065,7 +7128,7 @@
         <x:v>71.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="158" spans="1:12">
+    <x:row r="158" spans="1:16">
       <x:c r="A158" s="0" t="n">
         <x:v>2132</x:v>
       </x:c>
@@ -7073,10 +7136,10 @@
         <x:v>85959125</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
         <x:v>12</x:v>
@@ -7100,7 +7163,7 @@
         <x:v>59.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="159" spans="1:12">
+    <x:row r="159" spans="1:16">
       <x:c r="A159" s="0" t="n">
         <x:v>2134</x:v>
       </x:c>
@@ -7108,10 +7171,10 @@
         <x:v>85959149</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
         <x:v>12</x:v>
@@ -7135,7 +7198,7 @@
         <x:v>59.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="160" spans="1:12">
+    <x:row r="160" spans="1:16">
       <x:c r="A160" s="0" t="n">
         <x:v>2136</x:v>
       </x:c>
@@ -7143,10 +7206,10 @@
         <x:v>85959163</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
         <x:v>12</x:v>
@@ -7170,7 +7233,7 @@
         <x:v>59.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:12">
+    <x:row r="161" spans="1:16">
       <x:c r="A161" s="0" t="n">
         <x:v>3120</x:v>
       </x:c>
@@ -7178,13 +7241,13 @@
         <x:v>85962934</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
         <x:v>9</x:v>
@@ -7205,7 +7268,7 @@
         <x:v>16.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="1:12">
+    <x:row r="162" spans="1:16">
       <x:c r="A162" s="0" t="n">
         <x:v>3121</x:v>
       </x:c>
@@ -7213,13 +7276,13 @@
         <x:v>85962941</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
         <x:v>9</x:v>
@@ -7240,7 +7303,7 @@
         <x:v>16.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="163" spans="1:12">
+    <x:row r="163" spans="1:16">
       <x:c r="A163" s="0" t="n">
         <x:v>3122</x:v>
       </x:c>
@@ -7248,13 +7311,13 @@
         <x:v>85962958</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
         <x:v>9</x:v>
@@ -7275,21 +7338,21 @@
         <x:v>16.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="164" spans="1:12">
+    <x:row r="164" spans="1:16">
       <x:c r="A164" s="0" t="n">
         <x:v>2095</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E164" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
         <x:v>9</x:v>
@@ -7310,18 +7373,18 @@
         <x:v>118.125</x:v>
       </x:c>
     </x:row>
-    <x:row r="165" spans="1:12">
+    <x:row r="165" spans="1:16">
       <x:c r="A165" s="0" t="n">
         <x:v>2075</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
         <x:v>12</x:v>
@@ -7345,18 +7408,18 @@
         <x:v>119.76</x:v>
       </x:c>
     </x:row>
-    <x:row r="166" spans="1:12">
+    <x:row r="166" spans="1:16">
       <x:c r="A166" s="0" t="n">
         <x:v>2076</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
         <x:v>12</x:v>
@@ -7380,18 +7443,18 @@
         <x:v>149.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="167" spans="1:12">
+    <x:row r="167" spans="1:16">
       <x:c r="A167" s="0" t="n">
         <x:v>2078</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
         <x:v>12</x:v>
@@ -7415,21 +7478,21 @@
         <x:v>119.76</x:v>
       </x:c>
     </x:row>
-    <x:row r="168" spans="1:12">
+    <x:row r="168" spans="1:16">
       <x:c r="A168" s="0" t="n">
         <x:v>2080</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
         <x:v>9</x:v>
@@ -7450,7 +7513,7 @@
         <x:v>134.775</x:v>
       </x:c>
     </x:row>
-    <x:row r="169" spans="1:12">
+    <x:row r="169" spans="1:16">
       <x:c r="A169" s="0" t="n">
         <x:v>2097</x:v>
       </x:c>
@@ -7458,13 +7521,13 @@
         <x:v>85955127</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
         <x:v>12</x:v>
@@ -7485,7 +7548,7 @@
         <x:v>107.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="170" spans="1:12">
+    <x:row r="170" spans="1:16">
       <x:c r="A170" s="0" t="n">
         <x:v>2698</x:v>
       </x:c>
@@ -7493,10 +7556,10 @@
         <x:v>85963702</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
         <x:v>28</x:v>
@@ -7517,7 +7580,7 @@
         <x:v>125.86</x:v>
       </x:c>
     </x:row>
-    <x:row r="171" spans="1:12">
+    <x:row r="171" spans="1:16">
       <x:c r="A171" s="0" t="n">
         <x:v>2699</x:v>
       </x:c>
@@ -7525,10 +7588,10 @@
         <x:v>85963719</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
         <x:v>28</x:v>
@@ -7549,18 +7612,18 @@
         <x:v>62.93</x:v>
       </x:c>
     </x:row>
-    <x:row r="172" spans="1:12">
+    <x:row r="172" spans="1:16">
       <x:c r="A172" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
         <x:v>12</x:v>
@@ -7584,21 +7647,21 @@
         <x:v>67.35</x:v>
       </x:c>
     </x:row>
-    <x:row r="173" spans="1:12">
+    <x:row r="173" spans="1:16">
       <x:c r="A173" s="0" t="n">
         <x:v>1415</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
         <x:v>12</x:v>
@@ -7619,7 +7682,7 @@
         <x:v>89.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="174" spans="1:12">
+    <x:row r="174" spans="1:16">
       <x:c r="A174" s="0" t="n">
         <x:v>3451</x:v>
       </x:c>
@@ -7627,10 +7690,10 @@
         <x:v>85968615</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
         <x:v>3</x:v>
@@ -7651,7 +7714,7 @@
         <x:v>74.625</x:v>
       </x:c>
     </x:row>
-    <x:row r="175" spans="1:12">
+    <x:row r="175" spans="1:16">
       <x:c r="A175" s="0" t="n">
         <x:v>3452</x:v>
       </x:c>
@@ -7659,10 +7722,10 @@
         <x:v>85968622</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
         <x:v>3</x:v>
@@ -7683,7 +7746,7 @@
         <x:v>89.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="176" spans="1:12">
+    <x:row r="176" spans="1:16">
       <x:c r="A176" s="0" t="n">
         <x:v>3362</x:v>
       </x:c>
@@ -7691,10 +7754,10 @@
         <x:v>85964457</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
         <x:v>6</x:v>
@@ -7715,7 +7778,7 @@
         <x:v>13.485</x:v>
       </x:c>
     </x:row>
-    <x:row r="177" spans="1:12">
+    <x:row r="177" spans="1:16">
       <x:c r="A177" s="0" t="n">
         <x:v>2140</x:v>
       </x:c>
@@ -7723,13 +7786,13 @@
         <x:v>85960336</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
         <x:v>12</x:v>
@@ -7750,7 +7813,7 @@
         <x:v>161.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="178" spans="1:12">
+    <x:row r="178" spans="1:16">
       <x:c r="A178" s="0" t="n">
         <x:v>2143</x:v>
       </x:c>
@@ -7758,13 +7821,13 @@
         <x:v>85960572</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
         <x:v>12</x:v>
@@ -7785,7 +7848,7 @@
         <x:v>119.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="179" spans="1:12">
+    <x:row r="179" spans="1:16">
       <x:c r="A179" s="0" t="n">
         <x:v>2146</x:v>
       </x:c>
@@ -7793,13 +7856,13 @@
         <x:v>85968974</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
         <x:v>12</x:v>
@@ -7820,7 +7883,7 @@
         <x:v>53.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="180" spans="1:12">
+    <x:row r="180" spans="1:16">
       <x:c r="A180" s="0" t="n">
         <x:v>2147</x:v>
       </x:c>
@@ -7828,10 +7891,10 @@
         <x:v>85968981</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
         <x:v>12</x:v>
@@ -7852,7 +7915,7 @@
         <x:v>119.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="181" spans="1:12">
+    <x:row r="181" spans="1:16">
       <x:c r="A181" s="0" t="n">
         <x:v>2109</x:v>
       </x:c>
@@ -7860,13 +7923,13 @@
         <x:v>85956117</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
         <x:v>12</x:v>
@@ -7887,7 +7950,7 @@
         <x:v>263.76</x:v>
       </x:c>
     </x:row>
-    <x:row r="182" spans="1:12">
+    <x:row r="182" spans="1:16">
       <x:c r="A182" s="0" t="n">
         <x:v>2110</x:v>
       </x:c>
@@ -7895,13 +7958,13 @@
         <x:v>85957787</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F182" s="0" t="n">
         <x:v>12</x:v>
@@ -7922,7 +7985,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="183" spans="1:12">
+    <x:row r="183" spans="1:16">
       <x:c r="A183" s="0" t="n">
         <x:v>2111</x:v>
       </x:c>
@@ -7930,13 +7993,13 @@
         <x:v>85956919</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
         <x:v>12</x:v>
@@ -7957,7 +8020,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="184" spans="1:12">
+    <x:row r="184" spans="1:16">
       <x:c r="A184" s="0" t="n">
         <x:v>2112</x:v>
       </x:c>
@@ -7965,13 +8028,13 @@
         <x:v>85958029</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="D184" s="0" t="s">
         <x:v>339</x:v>
       </x:c>
-      <x:c r="D184" s="0" t="s">
-        <x:v>335</x:v>
-      </x:c>
       <x:c r="E184" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
         <x:v>12</x:v>
@@ -7992,7 +8055,7 @@
         <x:v>428.61</x:v>
       </x:c>
     </x:row>
-    <x:row r="185" spans="1:12">
+    <x:row r="185" spans="1:16">
       <x:c r="A185" s="0" t="n">
         <x:v>2119</x:v>
       </x:c>
@@ -8000,13 +8063,13 @@
         <x:v>85958715</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
         <x:v>12</x:v>
@@ -8027,18 +8090,18 @@
         <x:v>164.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="186" spans="1:12">
+    <x:row r="186" spans="1:16">
       <x:c r="A186" s="0" t="n">
         <x:v>2225</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
         <x:v>5</x:v>
@@ -8062,18 +8125,18 @@
         <x:v>149.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="187" spans="1:12">
+    <x:row r="187" spans="1:16">
       <x:c r="A187" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="C187" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="D187" s="0" t="s">
         <x:v>345</x:v>
-      </x:c>
-      <x:c r="C187" s="0" t="s">
-        <x:v>346</x:v>
-      </x:c>
-      <x:c r="D187" s="0" t="s">
-        <x:v>341</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
         <x:v>5</x:v>
@@ -8097,18 +8160,18 @@
         <x:v>209.79</x:v>
       </x:c>
     </x:row>
-    <x:row r="188" spans="1:12">
+    <x:row r="188" spans="1:16">
       <x:c r="A188" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
         <x:v>6</x:v>
@@ -8132,21 +8195,21 @@
         <x:v>80.91</x:v>
       </x:c>
     </x:row>
-    <x:row r="189" spans="1:12">
+    <x:row r="189" spans="1:16">
       <x:c r="A189" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
         <x:v>8595003924450</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E189" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
         <x:v>12</x:v>
@@ -8167,21 +8230,21 @@
         <x:v>107.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="190" spans="1:12">
+    <x:row r="190" spans="1:16">
       <x:c r="A190" s="0" t="n">
         <x:v>2217</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D190" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E190" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
         <x:v>12</x:v>
@@ -8202,21 +8265,21 @@
         <x:v>129.48</x:v>
       </x:c>
     </x:row>
-    <x:row r="191" spans="1:12">
+    <x:row r="191" spans="1:16">
       <x:c r="A191" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
         <x:v>12</x:v>
@@ -8237,7 +8300,7 @@
         <x:v>215.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="192" spans="1:12">
+    <x:row r="192" spans="1:16">
       <x:c r="A192" s="0" t="n">
         <x:v>2125</x:v>
       </x:c>
@@ -8245,10 +8308,10 @@
         <x:v>85959057</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
         <x:v>12</x:v>
@@ -8272,7 +8335,7 @@
         <x:v>59.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="193" spans="1:12">
+    <x:row r="193" spans="1:16">
       <x:c r="A193" s="0" t="n">
         <x:v>3068</x:v>
       </x:c>
@@ -8280,13 +8343,13 @@
         <x:v>85966413</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E193" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
         <x:v>12</x:v>
@@ -8307,7 +8370,7 @@
         <x:v>29.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="194" spans="1:12">
+    <x:row r="194" spans="1:16">
       <x:c r="A194" s="0" t="n">
         <x:v>3085</x:v>
       </x:c>
@@ -8315,13 +8378,13 @@
         <x:v>85962729</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
         <x:v>12</x:v>
@@ -8342,7 +8405,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="195" spans="1:12">
+    <x:row r="195" spans="1:16">
       <x:c r="A195" s="0" t="n">
         <x:v>3088</x:v>
       </x:c>
@@ -8350,13 +8413,13 @@
         <x:v>85962750</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
         <x:v>12</x:v>
@@ -8377,7 +8440,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="196" spans="1:12">
+    <x:row r="196" spans="1:16">
       <x:c r="A196" s="0" t="n">
         <x:v>3092</x:v>
       </x:c>
@@ -8385,13 +8448,13 @@
         <x:v>85962798</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D196" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F196" s="0" t="n">
         <x:v>12</x:v>
@@ -8412,7 +8475,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="197" spans="1:12">
+    <x:row r="197" spans="1:16">
       <x:c r="A197" s="0" t="n">
         <x:v>3095</x:v>
       </x:c>
@@ -8420,13 +8483,13 @@
         <x:v>85962828</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D197" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
         <x:v>12</x:v>
@@ -8447,7 +8510,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="198" spans="1:12">
+    <x:row r="198" spans="1:16">
       <x:c r="A198" s="0" t="n">
         <x:v>2186</x:v>
       </x:c>
@@ -8455,10 +8518,10 @@
         <x:v>85964310</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D198" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
         <x:v>12</x:v>
@@ -8479,7 +8542,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="199" spans="1:12">
+    <x:row r="199" spans="1:16">
       <x:c r="A199" s="0" t="n">
         <x:v>2188</x:v>
       </x:c>
@@ -8487,10 +8550,10 @@
         <x:v>85964334</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F199" s="0" t="n">
         <x:v>12</x:v>
@@ -8511,7 +8574,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="200" spans="1:12">
+    <x:row r="200" spans="1:16">
       <x:c r="A200" s="0" t="n">
         <x:v>2197</x:v>
       </x:c>
@@ -8519,10 +8582,10 @@
         <x:v>85964426</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
         <x:v>12</x:v>
@@ -8543,7 +8606,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="201" spans="1:12">
+    <x:row r="201" spans="1:16">
       <x:c r="A201" s="0" t="n">
         <x:v>3000</x:v>
       </x:c>
@@ -8551,13 +8614,13 @@
         <x:v>85956377</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
         <x:v>24</x:v>
@@ -8578,7 +8641,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="202" spans="1:12">
+    <x:row r="202" spans="1:16">
       <x:c r="A202" s="0" t="n">
         <x:v>3002</x:v>
       </x:c>
@@ -8586,13 +8649,13 @@
         <x:v>85956391</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D202" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E202" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
         <x:v>24</x:v>
@@ -8613,7 +8676,7 @@
         <x:v>131.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="203" spans="1:12">
+    <x:row r="203" spans="1:16">
       <x:c r="A203" s="0" t="n">
         <x:v>3003</x:v>
       </x:c>
@@ -8621,13 +8684,13 @@
         <x:v>85956407</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="D203" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E203" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
         <x:v>24</x:v>
@@ -8648,7 +8711,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="204" spans="1:12">
+    <x:row r="204" spans="1:16">
       <x:c r="A204" s="0" t="n">
         <x:v>3004</x:v>
       </x:c>
@@ -8656,13 +8719,13 @@
         <x:v>85956414</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D204" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E204" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F204" s="0" t="n">
         <x:v>24</x:v>
@@ -8683,7 +8746,7 @@
         <x:v>131.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="205" spans="1:12">
+    <x:row r="205" spans="1:16">
       <x:c r="A205" s="0" t="n">
         <x:v>3005</x:v>
       </x:c>
@@ -8691,13 +8754,13 @@
         <x:v>85956421</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="D205" s="0" t="s">
         <x:v>374</x:v>
       </x:c>
-      <x:c r="D205" s="0" t="s">
-        <x:v>370</x:v>
-      </x:c>
       <x:c r="E205" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F205" s="0" t="n">
         <x:v>24</x:v>
@@ -8718,7 +8781,7 @@
         <x:v>131.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="206" spans="1:12">
+    <x:row r="206" spans="1:16">
       <x:c r="A206" s="0" t="n">
         <x:v>3007</x:v>
       </x:c>
@@ -8726,13 +8789,13 @@
         <x:v>85956445</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D206" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E206" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
         <x:v>24</x:v>
@@ -8753,7 +8816,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="207" spans="1:12">
+    <x:row r="207" spans="1:16">
       <x:c r="A207" s="0" t="n">
         <x:v>3020</x:v>
       </x:c>
@@ -8761,13 +8824,13 @@
         <x:v>85959194</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D207" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E207" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F207" s="0" t="n">
         <x:v>24</x:v>
@@ -8788,7 +8851,7 @@
         <x:v>131.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="208" spans="1:12">
+    <x:row r="208" spans="1:16">
       <x:c r="A208" s="0" t="n">
         <x:v>3022</x:v>
       </x:c>
@@ -8796,13 +8859,13 @@
         <x:v>85963917</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D208" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E208" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F208" s="0" t="n">
         <x:v>24</x:v>
@@ -8823,7 +8886,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="209" spans="1:12">
+    <x:row r="209" spans="1:16">
       <x:c r="A209" s="0" t="n">
         <x:v>3025</x:v>
       </x:c>
@@ -8831,13 +8894,13 @@
         <x:v>85963948</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D209" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E209" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F209" s="0" t="n">
         <x:v>24</x:v>
@@ -8858,7 +8921,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="210" spans="1:12">
+    <x:row r="210" spans="1:16">
       <x:c r="A210" s="0" t="n">
         <x:v>3026</x:v>
       </x:c>
@@ -8866,13 +8929,13 @@
         <x:v>85963955</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="D210" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E210" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F210" s="0" t="n">
         <x:v>24</x:v>
@@ -8893,7 +8956,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="211" spans="1:12">
+    <x:row r="211" spans="1:16">
       <x:c r="A211" s="0" t="n">
         <x:v>3027</x:v>
       </x:c>
@@ -8901,13 +8964,13 @@
         <x:v>85963962</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D211" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E211" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F211" s="0" t="n">
         <x:v>24</x:v>
@@ -8928,7 +8991,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="212" spans="1:12">
+    <x:row r="212" spans="1:16">
       <x:c r="A212" s="0" t="n">
         <x:v>3031</x:v>
       </x:c>
@@ -8936,13 +8999,13 @@
         <x:v>85964006</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D212" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E212" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
         <x:v>24</x:v>
@@ -8963,7 +9026,7 @@
         <x:v>131.88</x:v>
       </x:c>
     </x:row>
-    <x:row r="213" spans="1:12">
+    <x:row r="213" spans="1:16">
       <x:c r="A213" s="0" t="n">
         <x:v>3036</x:v>
       </x:c>
@@ -8971,13 +9034,13 @@
         <x:v>85969032</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D213" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E213" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
         <x:v>24</x:v>
@@ -8998,7 +9061,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="214" spans="1:12">
+    <x:row r="214" spans="1:16">
       <x:c r="A214" s="0" t="n">
         <x:v>3037</x:v>
       </x:c>
@@ -9006,13 +9069,13 @@
         <x:v>85969049</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="D214" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E214" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F214" s="0" t="n">
         <x:v>24</x:v>
@@ -9033,7 +9096,7 @@
         <x:v>65.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="215" spans="1:12">
+    <x:row r="215" spans="1:16">
       <x:c r="A215" s="0" t="n">
         <x:v>3040</x:v>
       </x:c>
@@ -9041,13 +9104,13 @@
         <x:v>85960190</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D215" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E215" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F215" s="0" t="n">
         <x:v>12</x:v>
@@ -9068,7 +9131,7 @@
         <x:v>53.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="216" spans="1:12">
+    <x:row r="216" spans="1:16">
       <x:c r="A216" s="0" t="n">
         <x:v>3041</x:v>
       </x:c>
@@ -9076,13 +9139,13 @@
         <x:v>85960206</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D216" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E216" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F216" s="0" t="n">
         <x:v>12</x:v>
@@ -9103,7 +9166,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="217" spans="1:12">
+    <x:row r="217" spans="1:16">
       <x:c r="A217" s="0" t="n">
         <x:v>3042</x:v>
       </x:c>
@@ -9111,13 +9174,13 @@
         <x:v>85960213</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D217" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E217" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F217" s="0" t="n">
         <x:v>12</x:v>
@@ -9138,7 +9201,7 @@
         <x:v>53.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="218" spans="1:12">
+    <x:row r="218" spans="1:16">
       <x:c r="A218" s="0" t="n">
         <x:v>3044</x:v>
       </x:c>
@@ -9146,13 +9209,13 @@
         <x:v>85960237</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D218" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E218" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F218" s="0" t="n">
         <x:v>12</x:v>
@@ -9173,7 +9236,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="219" spans="1:12">
+    <x:row r="219" spans="1:16">
       <x:c r="A219" s="0" t="n">
         <x:v>3047</x:v>
       </x:c>
@@ -9181,13 +9244,13 @@
         <x:v>85960268</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="D219" s="0" t="s">
         <x:v>389</x:v>
       </x:c>
-      <x:c r="D219" s="0" t="s">
-        <x:v>385</x:v>
-      </x:c>
       <x:c r="E219" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F219" s="0" t="n">
         <x:v>12</x:v>
@@ -9208,7 +9271,7 @@
         <x:v>53.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="220" spans="1:12">
+    <x:row r="220" spans="1:16">
       <x:c r="A220" s="0" t="n">
         <x:v>3048</x:v>
       </x:c>
@@ -9216,13 +9279,13 @@
         <x:v>85960275</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
         <x:v>12</x:v>
@@ -9243,7 +9306,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="221" spans="1:12">
+    <x:row r="221" spans="1:16">
       <x:c r="A221" s="0" t="n">
         <x:v>3049</x:v>
       </x:c>
@@ -9251,13 +9314,13 @@
         <x:v>85960282</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
         <x:v>12</x:v>
@@ -9278,7 +9341,7 @@
         <x:v>53.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="222" spans="1:12">
+    <x:row r="222" spans="1:16">
       <x:c r="A222" s="0" t="n">
         <x:v>3051</x:v>
       </x:c>
@@ -9286,13 +9349,13 @@
         <x:v>85960305</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D222" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E222" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
         <x:v>12</x:v>
@@ -9313,7 +9376,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="223" spans="1:12">
+    <x:row r="223" spans="1:16">
       <x:c r="A223" s="0" t="n">
         <x:v>3052</x:v>
       </x:c>
@@ -9321,13 +9384,13 @@
         <x:v>85960312</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="D223" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E223" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
         <x:v>12</x:v>
@@ -9348,7 +9411,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="224" spans="1:12">
+    <x:row r="224" spans="1:16">
       <x:c r="A224" s="0" t="n">
         <x:v>3053</x:v>
       </x:c>
@@ -9356,13 +9419,13 @@
         <x:v>85960367</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="D224" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E224" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
         <x:v>12</x:v>
@@ -9383,7 +9446,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="225" spans="1:12">
+    <x:row r="225" spans="1:16">
       <x:c r="A225" s="0" t="n">
         <x:v>3054</x:v>
       </x:c>
@@ -9391,13 +9454,13 @@
         <x:v>85960374</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="D225" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E225" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
         <x:v>12</x:v>
@@ -9418,7 +9481,7 @@
         <x:v>26.97</x:v>
       </x:c>
     </x:row>
-    <x:row r="226" spans="1:12">
+    <x:row r="226" spans="1:16">
       <x:c r="A226" s="0" t="n">
         <x:v>3441</x:v>
       </x:c>
@@ -9426,13 +9489,13 @@
         <x:v>85968912</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D226" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E226" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
         <x:v>12</x:v>
@@ -9453,7 +9516,7 @@
         <x:v>22.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="227" spans="1:12">
+    <x:row r="227" spans="1:16">
       <x:c r="A227" s="0" t="n">
         <x:v>3443</x:v>
       </x:c>
@@ -9461,13 +9524,13 @@
         <x:v>85968936</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="D227" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E227" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
         <x:v>12</x:v>
@@ -9488,7 +9551,7 @@
         <x:v>22.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="228" spans="1:12">
+    <x:row r="228" spans="1:16">
       <x:c r="A228" s="0" t="n">
         <x:v>5666</x:v>
       </x:c>
@@ -9496,10 +9559,10 @@
         <x:v>8595003117531</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D228" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E228" s="0" t="n">
         <x:v>5</x:v>
@@ -9523,7 +9586,7 @@
         <x:v>99.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="229" spans="1:12">
+    <x:row r="229" spans="1:16">
       <x:c r="A229" s="0" t="n">
         <x:v>5678</x:v>
       </x:c>
@@ -9531,10 +9594,10 @@
         <x:v>8595003117876</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D229" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E229" s="0" t="n">
         <x:v>6</x:v>
@@ -9558,7 +9621,7 @@
         <x:v>142.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="230" spans="1:12">
+    <x:row r="230" spans="1:16">
       <x:c r="A230" s="0" t="n">
         <x:v>5675</x:v>
       </x:c>
@@ -9566,10 +9629,10 @@
         <x:v>8595003117715</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D230" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
         <x:v>6</x:v>
@@ -9593,7 +9656,7 @@
         <x:v>40.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="231" spans="1:12">
+    <x:row r="231" spans="1:16">
       <x:c r="A231" s="0" t="n">
         <x:v>5676</x:v>
       </x:c>
@@ -9601,10 +9664,10 @@
         <x:v>8595003117739</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D231" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
         <x:v>5</x:v>
@@ -9628,7 +9691,7 @@
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="232" spans="1:12">
+    <x:row r="232" spans="1:16">
       <x:c r="A232" s="0" t="n">
         <x:v>2978</x:v>
       </x:c>
@@ -9636,13 +9699,13 @@
         <x:v>85959460</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="D232" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="E232" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
         <x:v>3</x:v>
@@ -9663,7 +9726,7 @@
         <x:v>59.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="233" spans="1:12">
+    <x:row r="233" spans="1:16">
       <x:c r="A233" s="0" t="n">
         <x:v>2979</x:v>
       </x:c>
@@ -9671,13 +9734,13 @@
         <x:v>85959477</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D233" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="E233" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
         <x:v>3</x:v>
@@ -9698,18 +9761,18 @@
         <x:v>59.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="234" spans="1:12">
+    <x:row r="234" spans="1:16">
       <x:c r="A234" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B234" s="0" t="n">
         <x:v>8595003114868</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="D234" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
         <x:v>10</x:v>
@@ -9730,18 +9793,18 @@
         <x:v>29.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="235" spans="1:12">
+    <x:row r="235" spans="1:16">
       <x:c r="A235" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B235" s="0" t="n">
         <x:v>8595003114882</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D235" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
         <x:v>10</x:v>
@@ -9762,21 +9825,21 @@
         <x:v>14.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="236" spans="1:12">
+    <x:row r="236" spans="1:16">
       <x:c r="A236" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B236" s="0" t="n">
         <x:v>8595003115391</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D236" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E236" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
         <x:v>20</x:v>
@@ -9797,7 +9860,7 @@
         <x:v>34.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="237" spans="1:12">
+    <x:row r="237" spans="1:16">
       <x:c r="A237" s="0" t="n">
         <x:v>5538</x:v>
       </x:c>
@@ -9805,13 +9868,13 @@
         <x:v>8590031105826</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D237" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E237" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
         <x:v>6</x:v>
@@ -9832,7 +9895,7 @@
         <x:v>23.94</x:v>
       </x:c>
     </x:row>
-    <x:row r="238" spans="1:12">
+    <x:row r="238" spans="1:16">
       <x:c r="A238" s="0" t="n">
         <x:v>5545</x:v>
       </x:c>
@@ -9840,13 +9903,13 @@
         <x:v>8590031105888</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D238" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E238" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
         <x:v>12</x:v>
@@ -9867,7 +9930,7 @@
         <x:v>29.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="239" spans="1:12">
+    <x:row r="239" spans="1:16">
       <x:c r="A239" s="0" t="n">
         <x:v>5552</x:v>
       </x:c>
@@ -9875,13 +9938,13 @@
         <x:v>8590031105949</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D239" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E239" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
         <x:v>15</x:v>
@@ -9902,7 +9965,7 @@
         <x:v>43.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="240" spans="1:12">
+    <x:row r="240" spans="1:16">
       <x:c r="A240" s="0" t="n">
         <x:v>5553</x:v>
       </x:c>
@@ -9910,13 +9973,13 @@
         <x:v>8590031105963</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D240" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E240" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
         <x:v>15</x:v>
@@ -9937,7 +10000,7 @@
         <x:v>43.875</x:v>
       </x:c>
     </x:row>
-    <x:row r="241" spans="1:12">
+    <x:row r="241" spans="1:16">
       <x:c r="A241" s="0" t="n">
         <x:v>5554</x:v>
       </x:c>
@@ -9945,13 +10008,13 @@
         <x:v>8590031105987</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D241" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E241" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
         <x:v>15</x:v>
@@ -9972,7 +10035,7 @@
         <x:v>14.625</x:v>
       </x:c>
     </x:row>
-    <x:row r="242" spans="1:12">
+    <x:row r="242" spans="1:16">
       <x:c r="A242" s="0" t="n">
         <x:v>5555</x:v>
       </x:c>
@@ -9980,13 +10043,13 @@
         <x:v>8590031106007</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D242" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
         <x:v>15</x:v>
@@ -10007,7 +10070,7 @@
         <x:v>14.625</x:v>
       </x:c>
     </x:row>
-    <x:row r="243" spans="1:12">
+    <x:row r="243" spans="1:16">
       <x:c r="A243" s="0" t="n">
         <x:v>5556</x:v>
       </x:c>
@@ -10015,13 +10078,13 @@
         <x:v>8590031106021</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F243" s="0" t="n">
         <x:v>15</x:v>
@@ -10042,7 +10105,7 @@
         <x:v>14.625</x:v>
       </x:c>
     </x:row>
-    <x:row r="244" spans="1:12">
+    <x:row r="244" spans="1:16">
       <x:c r="A244" s="0" t="n">
         <x:v>5557</x:v>
       </x:c>
@@ -10050,13 +10113,13 @@
         <x:v>8590031106045</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="D244" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F244" s="0" t="n">
         <x:v>15</x:v>
